--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/11 Dola Beel Khal/LS_Direction_Change/Dola_beel_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/11 Dola Beel Khal/LS_Direction_Change/Dola_beel_Dataprep_Input.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21EA30-CCE0-458F-9268-1D1B2AEB3036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574A05F-505F-4EB9-A5E9-5B70F8617F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,17 +827,17 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -45767,28 +45767,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -45820,10 +45820,10 @@
         <v>72</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>0</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -45833,19 +45833,19 @@
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
@@ -46513,10 +46513,10 @@
       <c r="E20" s="42"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="40" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -46541,10 +46541,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="50">
+      <c r="D21" s="51">
         <v>0.1</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="51"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -46554,22 +46554,22 @@
       <c r="P21" s="24"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
@@ -47276,10 +47276,10 @@
       <c r="E39" s="42"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="40" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -47304,10 +47304,10 @@
         <v>72</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="50">
+      <c r="D40" s="51">
         <v>0.2</v>
       </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="51"/>
       <c r="J40" s="42"/>
       <c r="K40" s="42"/>
       <c r="L40" s="42"/>
@@ -47317,22 +47317,22 @@
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -48116,10 +48116,10 @@
         <v>72</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="50">
+      <c r="D63" s="51">
         <v>0.3</v>
       </c>
-      <c r="E63" s="50"/>
+      <c r="E63" s="51"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
@@ -48723,10 +48723,10 @@
         <v>72</v>
       </c>
       <c r="C79" s="23"/>
-      <c r="D79" s="50">
+      <c r="D79" s="51">
         <v>0.4</v>
       </c>
-      <c r="E79" s="50"/>
+      <c r="E79" s="51"/>
       <c r="J79" s="42"/>
       <c r="K79" s="42"/>
       <c r="L79" s="42"/>
@@ -49441,10 +49441,10 @@
         <v>72</v>
       </c>
       <c r="C96" s="23"/>
-      <c r="D96" s="50">
+      <c r="D96" s="51">
         <v>0.5</v>
       </c>
-      <c r="E96" s="50"/>
+      <c r="E96" s="51"/>
       <c r="J96" s="42"/>
       <c r="K96" s="42"/>
       <c r="L96" s="42"/>
@@ -50120,10 +50120,10 @@
         <v>72</v>
       </c>
       <c r="C113" s="23"/>
-      <c r="D113" s="50">
+      <c r="D113" s="51">
         <v>0.6</v>
       </c>
-      <c r="E113" s="50"/>
+      <c r="E113" s="51"/>
       <c r="J113" s="42"/>
       <c r="K113" s="42"/>
       <c r="L113" s="42"/>
@@ -50749,10 +50749,10 @@
         <v>72</v>
       </c>
       <c r="C128" s="23"/>
-      <c r="D128" s="50">
+      <c r="D128" s="51">
         <v>0.7</v>
       </c>
-      <c r="E128" s="50"/>
+      <c r="E128" s="51"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
@@ -50762,17 +50762,17 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="I129" s="51"/>
-      <c r="J129" s="51"/>
-      <c r="K129" s="51"/>
-      <c r="L129" s="51"/>
-      <c r="M129" s="51"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="50"/>
+      <c r="M129" s="50"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
       <c r="P129" s="30"/>
@@ -51379,10 +51379,10 @@
         <v>72</v>
       </c>
       <c r="C146" s="23"/>
-      <c r="D146" s="50">
+      <c r="D146" s="51">
         <v>0.8</v>
       </c>
-      <c r="E146" s="50"/>
+      <c r="E146" s="51"/>
       <c r="J146" s="42"/>
       <c r="K146" s="42"/>
       <c r="L146" s="42"/>
@@ -51392,17 +51392,17 @@
       <c r="P146" s="24"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
-      <c r="I147" s="51"/>
-      <c r="J147" s="51"/>
-      <c r="K147" s="51"/>
-      <c r="L147" s="51"/>
-      <c r="M147" s="51"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="50"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
       <c r="N147" s="25"/>
       <c r="O147" s="25"/>
       <c r="P147" s="30"/>
@@ -51974,10 +51974,10 @@
         <v>72</v>
       </c>
       <c r="C163" s="23"/>
-      <c r="D163" s="50">
+      <c r="D163" s="51">
         <v>0.9</v>
       </c>
-      <c r="E163" s="50"/>
+      <c r="E163" s="51"/>
       <c r="J163" s="42"/>
       <c r="K163" s="42"/>
       <c r="L163" s="42"/>
@@ -51987,17 +51987,17 @@
       <c r="P163" s="24"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B164" s="51"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="51"/>
-      <c r="E164" s="51"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="51"/>
-      <c r="I164" s="51"/>
-      <c r="J164" s="51"/>
-      <c r="K164" s="51"/>
-      <c r="L164" s="51"/>
-      <c r="M164" s="51"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
+      <c r="M164" s="50"/>
       <c r="N164" s="25"/>
       <c r="O164" s="25"/>
       <c r="P164" s="30"/>
@@ -52492,10 +52492,10 @@
         <v>72</v>
       </c>
       <c r="C178" s="23"/>
-      <c r="D178" s="50">
+      <c r="D178" s="51">
         <v>1</v>
       </c>
-      <c r="E178" s="50"/>
+      <c r="E178" s="51"/>
       <c r="J178" s="42"/>
       <c r="K178" s="42"/>
       <c r="L178" s="42"/>
@@ -52505,17 +52505,17 @@
       <c r="P178" s="24"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="51"/>
-      <c r="C179" s="51"/>
-      <c r="D179" s="51"/>
-      <c r="E179" s="51"/>
-      <c r="F179" s="51"/>
-      <c r="G179" s="51"/>
-      <c r="I179" s="51"/>
-      <c r="J179" s="51"/>
-      <c r="K179" s="51"/>
-      <c r="L179" s="51"/>
-      <c r="M179" s="51"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="50"/>
+      <c r="I179" s="50"/>
+      <c r="J179" s="50"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="50"/>
+      <c r="M179" s="50"/>
       <c r="N179" s="25"/>
       <c r="O179" s="25"/>
       <c r="P179" s="30"/>
@@ -53023,10 +53023,10 @@
         <v>72</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="50">
+      <c r="D193" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E193" s="50"/>
+      <c r="E193" s="51"/>
       <c r="J193" s="42"/>
       <c r="K193" s="42"/>
       <c r="L193" s="42"/>
@@ -53618,10 +53618,10 @@
         <v>72</v>
       </c>
       <c r="C209" s="23"/>
-      <c r="D209" s="50">
+      <c r="D209" s="51">
         <v>1.2</v>
       </c>
-      <c r="E209" s="50"/>
+      <c r="E209" s="51"/>
       <c r="J209" s="42"/>
       <c r="K209" s="42"/>
       <c r="L209" s="42"/>
@@ -54256,10 +54256,10 @@
         <v>72</v>
       </c>
       <c r="C226" s="23"/>
-      <c r="D226" s="50">
+      <c r="D226" s="51">
         <v>1.3</v>
       </c>
-      <c r="E226" s="50"/>
+      <c r="E226" s="51"/>
       <c r="J226" s="42"/>
       <c r="K226" s="42"/>
       <c r="L226" s="42"/>
@@ -54807,10 +54807,10 @@
         <v>72</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="50">
+      <c r="D241" s="51">
         <v>1.4</v>
       </c>
-      <c r="E241" s="50"/>
+      <c r="E241" s="51"/>
       <c r="J241" s="42"/>
       <c r="K241" s="42"/>
       <c r="L241" s="42"/>
@@ -55445,10 +55445,10 @@
         <v>72</v>
       </c>
       <c r="C258" s="23"/>
-      <c r="D258" s="50">
+      <c r="D258" s="51">
         <v>1.5</v>
       </c>
-      <c r="E258" s="50"/>
+      <c r="E258" s="51"/>
       <c r="J258" s="42"/>
       <c r="K258" s="42"/>
       <c r="L258" s="42"/>
@@ -55458,17 +55458,17 @@
       <c r="P258" s="24"/>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B259" s="51"/>
-      <c r="C259" s="51"/>
-      <c r="D259" s="51"/>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
-      <c r="G259" s="51"/>
-      <c r="I259" s="51"/>
-      <c r="J259" s="51"/>
-      <c r="K259" s="51"/>
-      <c r="L259" s="51"/>
-      <c r="M259" s="51"/>
+      <c r="B259" s="50"/>
+      <c r="C259" s="50"/>
+      <c r="D259" s="50"/>
+      <c r="E259" s="50"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="50"/>
+      <c r="I259" s="50"/>
+      <c r="J259" s="50"/>
+      <c r="K259" s="50"/>
+      <c r="L259" s="50"/>
+      <c r="M259" s="50"/>
       <c r="N259" s="25"/>
       <c r="O259" s="25"/>
       <c r="P259" s="30"/>
@@ -56206,10 +56206,10 @@
         <v>72</v>
       </c>
       <c r="C277" s="23"/>
-      <c r="D277" s="50">
+      <c r="D277" s="51">
         <v>1.6</v>
       </c>
-      <c r="E277" s="50"/>
+      <c r="E277" s="51"/>
       <c r="J277" s="42"/>
       <c r="K277" s="42"/>
       <c r="L277" s="42"/>
@@ -56219,17 +56219,17 @@
       <c r="P277" s="24"/>
     </row>
     <row r="278" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B278" s="51"/>
-      <c r="C278" s="51"/>
-      <c r="D278" s="51"/>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
-      <c r="G278" s="51"/>
-      <c r="I278" s="51"/>
-      <c r="J278" s="51"/>
-      <c r="K278" s="51"/>
-      <c r="L278" s="51"/>
-      <c r="M278" s="51"/>
+      <c r="B278" s="50"/>
+      <c r="C278" s="50"/>
+      <c r="D278" s="50"/>
+      <c r="E278" s="50"/>
+      <c r="F278" s="50"/>
+      <c r="G278" s="50"/>
+      <c r="I278" s="50"/>
+      <c r="J278" s="50"/>
+      <c r="K278" s="50"/>
+      <c r="L278" s="50"/>
+      <c r="M278" s="50"/>
       <c r="N278" s="25"/>
       <c r="O278" s="25"/>
       <c r="P278" s="30"/>
@@ -56915,10 +56915,10 @@
         <v>72</v>
       </c>
       <c r="C296" s="23"/>
-      <c r="D296" s="50">
+      <c r="D296" s="51">
         <v>1.7</v>
       </c>
-      <c r="E296" s="50"/>
+      <c r="E296" s="51"/>
       <c r="J296" s="42"/>
       <c r="K296" s="42"/>
       <c r="L296" s="42"/>
@@ -56928,17 +56928,17 @@
       <c r="P296" s="24"/>
     </row>
     <row r="297" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B297" s="51"/>
-      <c r="C297" s="51"/>
-      <c r="D297" s="51"/>
-      <c r="E297" s="51"/>
-      <c r="F297" s="51"/>
-      <c r="G297" s="51"/>
-      <c r="I297" s="51"/>
-      <c r="J297" s="51"/>
-      <c r="K297" s="51"/>
-      <c r="L297" s="51"/>
-      <c r="M297" s="51"/>
+      <c r="B297" s="50"/>
+      <c r="C297" s="50"/>
+      <c r="D297" s="50"/>
+      <c r="E297" s="50"/>
+      <c r="F297" s="50"/>
+      <c r="G297" s="50"/>
+      <c r="I297" s="50"/>
+      <c r="J297" s="50"/>
+      <c r="K297" s="50"/>
+      <c r="L297" s="50"/>
+      <c r="M297" s="50"/>
       <c r="N297" s="25"/>
       <c r="O297" s="25"/>
       <c r="P297" s="30"/>
@@ -57779,10 +57779,10 @@
         <v>72</v>
       </c>
       <c r="C323" s="23"/>
-      <c r="D323" s="50">
+      <c r="D323" s="51">
         <v>1.8</v>
       </c>
-      <c r="E323" s="50"/>
+      <c r="E323" s="51"/>
       <c r="J323" s="42"/>
       <c r="K323" s="42"/>
       <c r="L323" s="42"/>
@@ -58428,10 +58428,10 @@
         <v>72</v>
       </c>
       <c r="C341" s="23"/>
-      <c r="D341" s="50">
+      <c r="D341" s="51">
         <v>1.9</v>
       </c>
-      <c r="E341" s="50"/>
+      <c r="E341" s="51"/>
       <c r="J341" s="42"/>
       <c r="K341" s="42"/>
       <c r="L341" s="42"/>
@@ -59132,10 +59132,10 @@
         <v>72</v>
       </c>
       <c r="C360" s="23"/>
-      <c r="D360" s="50">
+      <c r="D360" s="51">
         <v>2</v>
       </c>
-      <c r="E360" s="50"/>
+      <c r="E360" s="51"/>
       <c r="J360" s="42"/>
       <c r="K360" s="42"/>
       <c r="L360" s="42"/>
@@ -59618,10 +59618,10 @@
         <v>72</v>
       </c>
       <c r="C373" s="23"/>
-      <c r="D373" s="50">
+      <c r="D373" s="51">
         <v>2.1</v>
       </c>
-      <c r="E373" s="50"/>
+      <c r="E373" s="51"/>
       <c r="J373" s="42"/>
       <c r="K373" s="42"/>
       <c r="L373" s="42"/>
@@ -60139,10 +60139,10 @@
         <v>72</v>
       </c>
       <c r="C388" s="23"/>
-      <c r="D388" s="50">
+      <c r="D388" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E388" s="50"/>
+      <c r="E388" s="51"/>
       <c r="J388" s="42"/>
       <c r="K388" s="42"/>
       <c r="L388" s="42"/>
@@ -60152,17 +60152,17 @@
       <c r="P388" s="24"/>
     </row>
     <row r="389" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B389" s="51"/>
-      <c r="C389" s="51"/>
-      <c r="D389" s="51"/>
-      <c r="E389" s="51"/>
-      <c r="F389" s="51"/>
-      <c r="G389" s="51"/>
-      <c r="I389" s="51"/>
-      <c r="J389" s="51"/>
-      <c r="K389" s="51"/>
-      <c r="L389" s="51"/>
-      <c r="M389" s="51"/>
+      <c r="B389" s="50"/>
+      <c r="C389" s="50"/>
+      <c r="D389" s="50"/>
+      <c r="E389" s="50"/>
+      <c r="F389" s="50"/>
+      <c r="G389" s="50"/>
+      <c r="I389" s="50"/>
+      <c r="J389" s="50"/>
+      <c r="K389" s="50"/>
+      <c r="L389" s="50"/>
+      <c r="M389" s="50"/>
       <c r="N389" s="25"/>
       <c r="O389" s="25"/>
       <c r="P389" s="30"/>
@@ -60707,10 +60707,10 @@
         <v>72</v>
       </c>
       <c r="C405" s="23"/>
-      <c r="D405" s="50">
+      <c r="D405" s="51">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E405" s="50"/>
+      <c r="E405" s="51"/>
       <c r="J405" s="42"/>
       <c r="K405" s="42"/>
       <c r="L405" s="42"/>
@@ -60720,17 +60720,17 @@
       <c r="P405" s="24"/>
     </row>
     <row r="406" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B406" s="51"/>
-      <c r="C406" s="51"/>
-      <c r="D406" s="51"/>
-      <c r="E406" s="51"/>
-      <c r="F406" s="51"/>
-      <c r="G406" s="51"/>
-      <c r="I406" s="51"/>
-      <c r="J406" s="51"/>
-      <c r="K406" s="51"/>
-      <c r="L406" s="51"/>
-      <c r="M406" s="51"/>
+      <c r="B406" s="50"/>
+      <c r="C406" s="50"/>
+      <c r="D406" s="50"/>
+      <c r="E406" s="50"/>
+      <c r="F406" s="50"/>
+      <c r="G406" s="50"/>
+      <c r="I406" s="50"/>
+      <c r="J406" s="50"/>
+      <c r="K406" s="50"/>
+      <c r="L406" s="50"/>
+      <c r="M406" s="50"/>
       <c r="N406" s="25"/>
       <c r="O406" s="25"/>
       <c r="P406" s="30"/>
@@ -61923,26 +61923,22 @@
     <row r="859" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I406:M406"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="D405:E405"/>
-    <mergeCell ref="B406:G406"/>
-    <mergeCell ref="B389:G389"/>
-    <mergeCell ref="I389:M389"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="I259:M259"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="I179:M179"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="I278:M278"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="B297:G297"/>
+    <mergeCell ref="I297:M297"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="I147:M147"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="I164:M164"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="I129:M129"/>
+    <mergeCell ref="D146:E146"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D3:E3"/>
@@ -61958,22 +61954,26 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="I129:M129"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="I147:M147"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="I164:M164"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="B278:G278"/>
-    <mergeCell ref="I278:M278"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="B297:G297"/>
-    <mergeCell ref="I297:M297"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="I179:M179"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="I259:M259"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="I406:M406"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="B406:G406"/>
+    <mergeCell ref="B389:G389"/>
+    <mergeCell ref="I389:M389"/>
+    <mergeCell ref="D388:E388"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -61986,7 +61986,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
